--- a/viralint/cpu_viralint.xlsx
+++ b/viralint/cpu_viralint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>date_hour_of_Aug</t>
   </si>
@@ -260,6 +260,138 @@
   </si>
   <si>
     <t>6_06</t>
+  </si>
+  <si>
+    <t>6_12</t>
+  </si>
+  <si>
+    <t>6_18</t>
+  </si>
+  <si>
+    <t>7_00</t>
+  </si>
+  <si>
+    <t>7_06</t>
+  </si>
+  <si>
+    <t>7_12</t>
+  </si>
+  <si>
+    <t>7_18</t>
+  </si>
+  <si>
+    <t>8_00</t>
+  </si>
+  <si>
+    <t>8_06</t>
+  </si>
+  <si>
+    <t>8_12</t>
+  </si>
+  <si>
+    <t>8_18</t>
+  </si>
+  <si>
+    <t>9_00</t>
+  </si>
+  <si>
+    <t>9_06</t>
+  </si>
+  <si>
+    <t>9_12</t>
+  </si>
+  <si>
+    <t>9_18</t>
+  </si>
+  <si>
+    <t>10_00</t>
+  </si>
+  <si>
+    <t>10_06</t>
+  </si>
+  <si>
+    <t>10_12</t>
+  </si>
+  <si>
+    <t>10_18</t>
+  </si>
+  <si>
+    <t>11_00</t>
+  </si>
+  <si>
+    <t>11_06</t>
+  </si>
+  <si>
+    <t>11_12</t>
+  </si>
+  <si>
+    <t>11_18</t>
+  </si>
+  <si>
+    <t>12_00</t>
+  </si>
+  <si>
+    <t>12_06</t>
+  </si>
+  <si>
+    <t>12_12</t>
+  </si>
+  <si>
+    <t>12_18</t>
+  </si>
+  <si>
+    <t>13_00</t>
+  </si>
+  <si>
+    <t>13_06</t>
+  </si>
+  <si>
+    <t>13_12</t>
+  </si>
+  <si>
+    <t>13_18</t>
+  </si>
+  <si>
+    <t>14_00</t>
+  </si>
+  <si>
+    <t>14_06</t>
+  </si>
+  <si>
+    <t>14_12</t>
+  </si>
+  <si>
+    <t>14_18</t>
+  </si>
+  <si>
+    <t>15_00</t>
+  </si>
+  <si>
+    <t>15_06</t>
+  </si>
+  <si>
+    <t>15_12</t>
+  </si>
+  <si>
+    <t>15_18</t>
+  </si>
+  <si>
+    <t>16_00</t>
+  </si>
+  <si>
+    <t>16_06</t>
+  </si>
+  <si>
+    <t>16_12</t>
+  </si>
+  <si>
+    <t>16_18</t>
+  </si>
+  <si>
+    <t>17_00</t>
+  </si>
+  <si>
+    <t>17_06</t>
   </si>
 </sst>
 </file>
@@ -591,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,6 +1377,454 @@
         <v>98.16</v>
       </c>
     </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>98.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>97.06999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>98.59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>41.74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>40.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>82.70999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>53.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>45.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>44.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>41.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>50.17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>32.62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>15.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
